--- a/data_table/BattleSkillItemDraw.xlsx
+++ b/data_table/BattleSkillItemDraw.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -828,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,9 +842,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1295,93 +1295,93 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:17">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1392,10 +1392,10 @@
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>15003701</v>
@@ -1407,14 +1407,14 @@
         <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:9">
@@ -1425,10 +1425,10 @@
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>15003702</v>
@@ -1440,10 +1440,10 @@
         <v>700</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:13">
@@ -1454,10 +1454,10 @@
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>15003703</v>
@@ -1469,10 +1469,10 @@
         <v>1500</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6"/>
       <c r="M6" s="2"/>
@@ -1485,10 +1485,10 @@
         <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>15003704</v>
@@ -1500,10 +1500,10 @@
         <v>3000</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:9">
@@ -1514,10 +1514,10 @@
         <v>1005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>15003705</v>
@@ -1529,10 +1529,10 @@
         <v>6000</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="3:5">
